--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="13800"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
